--- a/ESPN sports website/IPL/Kolkata Knight Riders/Umesh Yadav.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Umesh Yadav.xlsx
@@ -495,16 +495,16 @@
         <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Delhi Capitals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 10, 2022</v>
+        <v>May 18, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>Super Giants won by 2 runs</v>
       </c>
     </row>
     <row r="4">
@@ -568,13 +568,13 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J5" t="str">
-        <v>April 28, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="6">
@@ -670,16 +670,16 @@
         <v>0.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I8" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J8" t="str">
-        <v>May 18, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Super Giants won by 2 runs</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
   </sheetData>
